--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cocos\Dinosaur-Park\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DinosaurPark\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,26 +70,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prefabs/STB_Super_Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Super_Level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Super_Level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Gem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +164,6 @@
     <t>icon/钻石龙</t>
   </si>
   <si>
-    <t>prefabs/STB_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,66 +240,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>animation/金币龙1级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙2级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙3级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙4级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙5级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙6级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙7级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙8级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙9级动画/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/金币龙10级动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/宝石龙动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/矿石龙1级动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/矿石龙2级动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/矿石龙3级动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/砖石龙动画/idle/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stb_gem</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -393,6 +309,90 @@
   </si>
   <si>
     <t>gui/game/texture/adoption/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/宝石星兽/gem|idle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/砖石星兽/diamond|idle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv1-9/gold9|idle_9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv10/gold10|idle_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv1/super_lv1|idle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv2/super_lv2|idle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv3/super_lv3|idle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/黄金星兽Lv10/STB_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/宝石星兽/STB_Gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/砖石星兽/STB_Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv1/STB_Super_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv2/STB_Super_Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/至尊星兽Lv3/STB_Super_Level3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,16 +808,16 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -850,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -897,36 +897,36 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -944,29 +944,29 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="32.4">
@@ -1039,28 +1039,28 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -1068,22 +1068,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1112,22 +1112,22 @@
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1156,22 +1156,22 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1200,22 +1200,22 @@
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1244,22 +1244,22 @@
         <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1288,22 +1288,22 @@
         <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1332,22 +1332,22 @@
         <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1376,22 +1376,22 @@
         <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1420,22 +1420,22 @@
         <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1464,19 +1464,19 @@
         <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -1552,19 +1552,19 @@
         <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1596,19 +1596,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1640,19 +1640,19 @@
         <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1684,19 +1684,19 @@
         <v>401</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
